--- a/FinalReport/structure.xlsx
+++ b/FinalReport/structure.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\FinalReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43CC5A2-6BD9-4193-88E9-B02E05FD211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95165E01-126C-4291-8B66-12E1D7FC3943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abstract" sheetId="1" r:id="rId1"/>
-    <sheet name="Introduction" sheetId="2" r:id="rId2"/>
+    <sheet name="✔ Introduction" sheetId="2" r:id="rId2"/>
+    <sheet name="Bg Design Implementation" sheetId="3" r:id="rId3"/>
+    <sheet name="Testing &amp; Evaluation" sheetId="6" r:id="rId4"/>
+    <sheet name="Conclusion" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>IDEAS</t>
   </si>
@@ -127,21 +130,6 @@
     <t>Conclusion.</t>
   </si>
   <si>
-    <t>Motivation.</t>
-  </si>
-  <si>
-    <t>Goal.</t>
-  </si>
-  <si>
-    <t>Ethics.</t>
-  </si>
-  <si>
-    <t>Document structure.</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t># Numerical.
 # Endnote.
 # Word.</t>
@@ -151,9 +139,6 @@
   </si>
   <si>
     <t># Pre-approved for Bridge To College programme.</t>
-  </si>
-  <si>
-    <t>Referencing.</t>
   </si>
   <si>
     <t># Informative. Engaging. Enjoyable. 
@@ -165,15 +150,115 @@
 # Make students think about climate change and need for action.</t>
   </si>
   <si>
-    <t># Danger of climate change and urgency of the situation. 
-# Importance of forests. 
-# Loss of forests. Underlying monetary motivation.
-# Need for education (SDG).
+    <t xml:space="preserve"># Danger of climate change and urgency of the situation.
+# Importance of forests. Loss of forests. Underlying monetary motivation.
+# Need for education.
 # Youth.
-# Effective teaching. Microworld.</t>
-  </si>
-  <si>
-    <t>In Progress</t>
+# Microworld. </t>
+  </si>
+  <si>
+    <t>4 Days</t>
+  </si>
+  <si>
+    <t>Time  =</t>
+  </si>
+  <si>
+    <t>2 Days</t>
+  </si>
+  <si>
+    <t>Content Area</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Related Work</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Referencing</t>
+  </si>
+  <si>
+    <t>Ethics</t>
+  </si>
+  <si>
+    <t>Document Structure</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t># Climate Change Education
+# Existing Tools</t>
+  </si>
+  <si>
+    <t># Carbon Cycle
+# Forest Growth
+# Forest Management
+# Forests and Climate Change
+# Simulation
+# Pedagogy &amp; Microworlds
+# Human Computer Interaction</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Pedagogical Approach</t>
+  </si>
+  <si>
+    <t>User Interface Design</t>
+  </si>
+  <si>
+    <t>System Architecture</t>
+  </si>
+  <si>
+    <t>Detailed Technical Design</t>
+  </si>
+  <si>
+    <t>1 Days</t>
+  </si>
+  <si>
+    <t>BACKGROUND</t>
+  </si>
+  <si>
+    <t>DESIGN</t>
+  </si>
+  <si>
+    <t>IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>SDLC</t>
+  </si>
+  <si>
+    <t>Avoiding Bad Design Elements</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Previous Versions</t>
+  </si>
+  <si>
+    <t># Simluation logic.
+# Technology Used.
+# UI Components</t>
+  </si>
+  <si>
+    <t>UI Components, Input Variables</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t># Simulation. OOP
+# UI Components + Input Variables. MVC
+# Page structure.</t>
   </si>
 </sst>
 </file>
@@ -207,7 +292,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,12 +325,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFDDDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -281,11 +372,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,9 +440,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -327,8 +452,49 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,85 +916,377 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB7224F-0858-4F0D-A0AC-C6BA568F7C45}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.69140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="80.69140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="20.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80.69140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" style="12" customWidth="1"/>
     <col min="4" max="16384" width="9.23046875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="4" spans="1:3" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F8A093-065B-46B2-87CB-352034E8FEE6}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.69140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="80.69140625" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="28" t="str">
+        <f ca="1">"15 Days (" &amp; (C1-TODAY()) &amp; " Days Left)"</f>
+        <v>15 Days (7 Days Left)</v>
+      </c>
+      <c r="C1" s="27">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99" x14ac:dyDescent="0.4">
+      <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="99" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="B6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A14" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A15" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A22" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C292A4F4-B062-47C0-A739-9ECCD85FC43C}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="C1" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CBD05B-6E31-47F0-A591-3899FE5D037B}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FinalReport/structure.xlsx
+++ b/FinalReport/structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\FinalReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95165E01-126C-4291-8B66-12E1D7FC3943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E42E57-F633-4C8D-8FBD-63588BD8DC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t>Pedagogical Approach</t>
   </si>
   <si>
-    <t>User Interface Design</t>
-  </si>
-  <si>
     <t>System Architecture</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
     <t># Simulation. OOP
 # UI Components + Input Variables. MVC
 # Page structure.</t>
+  </si>
+  <si>
+    <t>HCI</t>
   </si>
 </sst>
 </file>
@@ -919,7 +919,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F8A093-065B-46B2-87CB-352034E8FEE6}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1037,10 +1037,10 @@
       </c>
       <c r="B1" s="28" t="str">
         <f ca="1">"15 Days (" &amp; (C1-TODAY()) &amp; " Days Left)"</f>
-        <v>15 Days (7 Days Left)</v>
+        <v>15 Days (1 Days Left)</v>
       </c>
       <c r="C1" s="27">
-        <v>45499</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.4">
@@ -1050,7 +1050,7 @@
     </row>
     <row r="3" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -1084,8 +1084,8 @@
       <c r="B6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>33</v>
+      <c r="C6" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1099,7 +1099,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -1129,36 +1129,36 @@
         <v>44</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="19" t="s">
-        <v>33</v>
+      <c r="C12" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="19" t="s">
-        <v>33</v>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
       <c r="A14" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
       <c r="A15" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>33</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>33</v>
@@ -1204,21 +1204,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A22" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="19" t="s">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="19" t="s">
@@ -1284,7 +1284,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="16"/>
     </row>
